--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bacardi\bacardi-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB0E70-554F-47F7-98C5-109E8DB251BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B9D34-7C94-42AC-8492-67AFC02606EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="temp" sheetId="3" r:id="rId3"/>
+    <sheet name="planner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +156,30 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>% Allocation</t>
+  </si>
+  <si>
+    <t>Expected Price</t>
+  </si>
+  <si>
+    <t>Inventory Holding Cost</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>year_1</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>year_2</t>
+  </si>
+  <si>
+    <t>year_3</t>
   </si>
 </sst>
 </file>
@@ -162,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,7 +237,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +578,7 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND((RANDBETWEEN(20,35)/100)*E2,0)</f>
-        <v>643425</v>
+        <v>866149</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
@@ -582,7 +607,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="0">ROUND((RANDBETWEEN(20,35)/100)*E3,0)</f>
-        <v>656149</v>
+        <v>618655</v>
       </c>
       <c r="G3">
         <f>D3-E3</f>
@@ -611,7 +636,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>493862</v>
+        <v>592635</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="1">D4-E4</f>
@@ -640,7 +665,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>398947</v>
+        <v>537711</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -669,7 +694,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>378401</v>
+        <v>436616</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -698,7 +723,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>347777</v>
+        <v>239846</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -727,7 +752,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>547272</v>
+        <v>597024</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -748,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34821DAD-B174-40A2-8279-55A543580168}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -800,31 +825,31 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>B20-B21</f>
+        <f t="shared" ref="B2:H2" si="0">B20-B21</f>
         <v>21207</v>
       </c>
       <c r="C2">
-        <f>C20-C21</f>
+        <f t="shared" si="0"/>
         <v>621207</v>
       </c>
       <c r="D2">
-        <f>D20-D21</f>
+        <f t="shared" si="0"/>
         <v>-872451</v>
       </c>
       <c r="E2">
-        <f>E20-E21</f>
+        <f t="shared" si="0"/>
         <v>-456706</v>
       </c>
       <c r="F2">
-        <f>F20-F21</f>
+        <f t="shared" si="0"/>
         <v>-345351</v>
       </c>
       <c r="G2">
-        <f>G20-G21</f>
+        <f t="shared" si="0"/>
         <v>219626</v>
       </c>
       <c r="H2">
-        <f>H20-H21</f>
+        <f t="shared" si="0"/>
         <v>-505225</v>
       </c>
     </row>
@@ -833,31 +858,31 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f>B2/B21</f>
+        <f t="shared" ref="B3:H3" si="1">B2/B21</f>
         <v>8.5694820245749807E-3</v>
       </c>
       <c r="C3" s="2">
-        <f>C2/C21</f>
+        <f t="shared" si="1"/>
         <v>0.33136129709523382</v>
       </c>
       <c r="D3" s="2">
-        <f>D2/D21</f>
+        <f t="shared" si="1"/>
         <v>-0.44164693697483459</v>
       </c>
       <c r="E3" s="2">
-        <f>E2/E21</f>
+        <f t="shared" si="1"/>
         <v>-0.26329941483381858</v>
       </c>
       <c r="F3" s="2">
-        <f>F2/F21</f>
+        <f t="shared" si="1"/>
         <v>-0.23729152452234353</v>
       </c>
       <c r="G3" s="2">
-        <f>G2/G21</f>
+        <f t="shared" si="1"/>
         <v>0.18313918097445861</v>
       </c>
       <c r="H3" s="2">
-        <f>H2/H21</f>
+        <f t="shared" si="1"/>
         <v>-0.20309744456401535</v>
       </c>
     </row>
@@ -866,32 +891,32 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.17</v>
+        <f t="shared" ref="B4:H7" ca="1" si="2">RANDBETWEEN(0,35)/100</f>
+        <v>0.03</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.02</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -899,32 +924,32 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.26</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -932,32 +957,32 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.31</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.04</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.04</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -965,32 +990,32 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">RANDBETWEEN(0,35)/100</f>
-        <v>0.26</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -998,31 +1023,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ref="B8:H11" ca="1" si="3">RANDBETWEEN(15,20)</f>
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="C8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>18</v>
-      </c>
       <c r="F8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="G8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>17</v>
-      </c>
       <c r="H8" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -1031,32 +1056,32 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="C9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
-      <c r="D9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+      <c r="H9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
-      </c>
-      <c r="F9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>20</v>
-      </c>
-      <c r="G9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1064,32 +1089,32 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="E10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="F10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>17</v>
-      </c>
       <c r="G10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1097,32 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="C11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
-      </c>
-      <c r="G11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
-        <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1130,32 +1155,32 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1116906</v>
+        <f t="shared" ref="B12:H15" ca="1" si="4">RANDBETWEEN(1000000,1750000)</f>
+        <v>1417471</v>
       </c>
       <c r="C12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1640395</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1266602</v>
       </c>
       <c r="D12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1271125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1459190</v>
       </c>
       <c r="E12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1587941</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1513263</v>
       </c>
       <c r="F12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1611330</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1093479</v>
       </c>
       <c r="G12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1238996</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1009793</v>
       </c>
       <c r="H12">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1271860</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1175414</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1163,32 +1188,32 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1135477</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1705758</v>
       </c>
       <c r="C13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1306408</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1413200</v>
       </c>
       <c r="D13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1710889</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1379237</v>
       </c>
       <c r="E13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1490994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1745340</v>
       </c>
       <c r="F13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1293995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1475149</v>
       </c>
       <c r="G13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1682669</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1269544</v>
       </c>
       <c r="H13">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1491993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1550957</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1196,32 +1221,32 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1151367</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1742793</v>
       </c>
       <c r="C14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1394835</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1101869</v>
       </c>
       <c r="D14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1199763</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1425506</v>
       </c>
       <c r="E14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1572104</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1421160</v>
       </c>
       <c r="F14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1476895</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1645483</v>
       </c>
       <c r="G14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1310390</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1375539</v>
       </c>
       <c r="H14">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1092685</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1483943</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1229,32 +1254,32 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1637370</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1536173</v>
       </c>
       <c r="C15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1057635</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1740923</v>
       </c>
       <c r="D15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1219797</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1290961</v>
       </c>
       <c r="E15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1733525</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1074541</v>
       </c>
       <c r="F15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1207521</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1292265</v>
       </c>
       <c r="G15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1081163</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1068072</v>
       </c>
       <c r="H15">
-        <f ca="1">RANDBETWEEN(1000000,1750000)</f>
-        <v>1460585</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1383172</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1262,32 +1287,32 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>5554</v>
+        <f t="shared" ref="B16:H19" ca="1" si="5">RANDBETWEEN(5000,10000)</f>
+        <v>9181</v>
       </c>
       <c r="C16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>9003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7878</v>
       </c>
       <c r="D16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>9722</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5602</v>
       </c>
       <c r="E16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7598</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9993</v>
       </c>
       <c r="F16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6091</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8672</v>
       </c>
       <c r="G16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>5515</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9927</v>
       </c>
       <c r="H16">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>8399</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7646</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1295,32 +1320,32 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>8550</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8920</v>
       </c>
       <c r="C17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6829</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9591</v>
       </c>
       <c r="D17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>9173</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6684</v>
       </c>
       <c r="E17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6683</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9140</v>
       </c>
       <c r="F17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6049</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7535</v>
       </c>
       <c r="G17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>8338</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5282</v>
       </c>
       <c r="H17">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>5789</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7195</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1328,32 +1353,32 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7456</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6891</v>
       </c>
       <c r="C18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6318</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5518</v>
       </c>
       <c r="D18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6494</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7199</v>
       </c>
       <c r="E18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>8966</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9745</v>
       </c>
       <c r="F18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7220</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7539</v>
       </c>
       <c r="G18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7631</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7241</v>
       </c>
       <c r="H18">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>9624</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6208</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1361,32 +1386,32 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6202</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8814</v>
       </c>
       <c r="C19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6301</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5315</v>
       </c>
       <c r="D19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7083</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7719</v>
       </c>
       <c r="E19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>8230</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8286</v>
       </c>
       <c r="F19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6422</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9537</v>
       </c>
       <c r="G19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>7115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7404</v>
       </c>
       <c r="H19">
-        <f ca="1">RANDBETWEEN(5000,10000)</f>
-        <v>6584</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6837</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1462,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A1,CHAR(34),",")</f>
+        <f t="shared" ref="B1:B16" si="0">_xlfn.CONCAT(CHAR(34),A1,CHAR(34),",")</f>
         <v>"Allocation Year 2",</v>
       </c>
       <c r="C1" t="str">
@@ -1475,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A2,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Allocation Year 3",</v>
       </c>
     </row>
@@ -1484,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A3,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Price Current",</v>
       </c>
     </row>
@@ -1493,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A4,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Price Year 1",</v>
       </c>
     </row>
@@ -1502,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A5,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Price Year 2",</v>
       </c>
     </row>
@@ -1511,7 +1536,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A6,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Price Year 3",</v>
       </c>
     </row>
@@ -1520,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A7,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Inventory Holding Cost Current",</v>
       </c>
     </row>
@@ -1529,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A8,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Inventory Holding Cost Year 1",</v>
       </c>
     </row>
@@ -1538,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A9,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Inventory Holding Cost Year 2",</v>
       </c>
     </row>
@@ -1547,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A10,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Inventory Holding Cost Year 3",</v>
       </c>
     </row>
@@ -1556,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A11,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Demand Current",</v>
       </c>
     </row>
@@ -1565,7 +1590,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A12,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Demand Year 1",</v>
       </c>
     </row>
@@ -1574,7 +1599,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A13,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Demand Year 2",</v>
       </c>
     </row>
@@ -1583,7 +1608,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A14,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Demand Year 3",</v>
       </c>
     </row>
@@ -1592,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A15,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Revenue",</v>
       </c>
     </row>
@@ -1601,8 +1626,66 @@
         <v>3</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34),A16,CHAR(34),",")</f>
+        <f t="shared" si="0"/>
         <v>"Cost",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADF7657-9A56-4892-ABED-B9BD122F9C2F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.61328125" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" customWidth="1"/>
+    <col min="4" max="4" width="12.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bacardi\bacardi-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B9D34-7C94-42AC-8492-67AFC02606EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C2BE79-4B4D-48A0-8016-C12AB4D6B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="temp" sheetId="3" r:id="rId3"/>
     <sheet name="planner" sheetId="4" r:id="rId4"/>
+    <sheet name="planner1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -180,16 +181,68 @@
   </si>
   <si>
     <t>year_3</t>
+  </si>
+  <si>
+    <t>Rum</t>
+  </si>
+  <si>
+    <t>BACARDÍ CARTA ORO</t>
+  </si>
+  <si>
+    <t>BACARDÍ RESERVA OCHO</t>
+  </si>
+  <si>
+    <t>BACARDÍ GRAN RESERVA DIEZ</t>
+  </si>
+  <si>
+    <t>BACARDÍ GRAN RESERVA LIMITADA</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>exp_price</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>BACARDÍ - Scotch 5 yr</t>
+  </si>
+  <si>
+    <t>BACARDÍ - Scotch 10 yr</t>
+  </si>
+  <si>
+    <t>BACARDÍ - Scotch 15 yr</t>
+  </si>
+  <si>
+    <t>BACARDÍ - Scotch 20 yr</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +263,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -227,17 +288,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +788,7 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND((RANDBETWEEN(20,35)/100)*E2,0)</f>
-        <v>866149</v>
+        <v>643425</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
@@ -607,7 +817,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="0">ROUND((RANDBETWEEN(20,35)/100)*E3,0)</f>
-        <v>618655</v>
+        <v>562414</v>
       </c>
       <c r="G3">
         <f>D3-E3</f>
@@ -636,7 +846,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>592635</v>
+        <v>612389</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="1">D4-E4</f>
@@ -665,7 +875,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>537711</v>
+        <v>468329</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -694,7 +904,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>436616</v>
+        <v>291077</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -723,7 +933,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>239846</v>
+        <v>263831</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -752,7 +962,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>597024</v>
+        <v>721404</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -892,31 +1102,31 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:H7" ca="1" si="2">RANDBETWEEN(0,35)/100</f>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -925,31 +1135,31 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0.06</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -958,31 +1168,31 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0.04</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -991,7 +1201,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -999,23 +1209,23 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.02</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1024,31 +1234,31 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ref="B8:H11" ca="1" si="3">RANDBETWEEN(15,20)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1061,27 +1271,27 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1090,31 +1300,31 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1123,31 +1333,31 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1156,31 +1366,31 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:H15" ca="1" si="4">RANDBETWEEN(1000000,1750000)</f>
-        <v>1417471</v>
+        <v>1339934</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="4"/>
-        <v>1266602</v>
+        <v>1168172</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>1459190</v>
+        <v>1130143</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>1513263</v>
+        <v>1254089</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>1093479</v>
+        <v>1057168</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>1009793</v>
+        <v>1248928</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>1175414</v>
+        <v>1570914</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1189,31 +1399,31 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="4"/>
-        <v>1705758</v>
+        <v>1716555</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="4"/>
-        <v>1413200</v>
+        <v>1222780</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>1379237</v>
+        <v>1176973</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>1745340</v>
+        <v>1234321</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>1475149</v>
+        <v>1429450</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>1269544</v>
+        <v>1488233</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>1550957</v>
+        <v>1165708</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1222,31 +1432,31 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="4"/>
-        <v>1742793</v>
+        <v>1098799</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>1101869</v>
+        <v>1515694</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>1425506</v>
+        <v>1673887</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>1421160</v>
+        <v>1396560</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>1645483</v>
+        <v>1435567</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>1375539</v>
+        <v>1553889</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>1483943</v>
+        <v>1450627</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1255,31 +1465,31 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="4"/>
-        <v>1536173</v>
+        <v>1709123</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>1740923</v>
+        <v>1005460</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>1290961</v>
+        <v>1254188</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>1074541</v>
+        <v>1708862</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>1292265</v>
+        <v>1210139</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>1068072</v>
+        <v>1074371</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>1383172</v>
+        <v>1660872</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1288,31 +1498,31 @@
       </c>
       <c r="B16">
         <f t="shared" ref="B16:H19" ca="1" si="5">RANDBETWEEN(5000,10000)</f>
-        <v>9181</v>
+        <v>9915</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="5"/>
-        <v>7878</v>
+        <v>7896</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>5602</v>
+        <v>6667</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>9993</v>
+        <v>9925</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>8672</v>
+        <v>6239</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="5"/>
-        <v>9927</v>
+        <v>6037</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>7646</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1321,31 +1531,31 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="5"/>
-        <v>8920</v>
+        <v>5673</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="5"/>
-        <v>9591</v>
+        <v>6810</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>6684</v>
+        <v>5254</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>9140</v>
+        <v>8385</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>7535</v>
+        <v>9021</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="5"/>
-        <v>5282</v>
+        <v>9616</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>7195</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1354,31 +1564,31 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="5"/>
-        <v>6891</v>
+        <v>7477</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="5"/>
-        <v>5518</v>
+        <v>6958</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>7199</v>
+        <v>6830</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>9745</v>
+        <v>5917</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>7539</v>
+        <v>9202</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>7241</v>
+        <v>9429</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>6208</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1387,31 +1597,31 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="5"/>
-        <v>8814</v>
+        <v>6823</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="5"/>
-        <v>5315</v>
+        <v>5165</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>7719</v>
+        <v>7655</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>8286</v>
+        <v>5181</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>9537</v>
+        <v>5523</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="5"/>
-        <v>7404</v>
+        <v>8746</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>6837</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1639,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADF7657-9A56-4892-ABED-B9BD122F9C2F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1691,4 +1901,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2FA15-EA79-41EB-8AEB-8B22759969F9}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.23046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>226.7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>120</v>
+      </c>
+      <c r="F2" s="10">
+        <v>6.2840292411179837</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>150</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10.544721923499145</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>475.1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>200</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.1942768889215536</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9">
+        <v>822.2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>300</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.1988296505044462</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>80</v>
+      </c>
+      <c r="E6" s="8">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7.84</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>200</v>
+      </c>
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
+        <v>450</v>
+      </c>
+      <c r="E8" s="8">
+        <v>150</v>
+      </c>
+      <c r="F8" s="10">
+        <v>15.89</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9">
+        <v>900</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.55</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="15">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bacardi\bacardi-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C2BE79-4B4D-48A0-8016-C12AB4D6B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F32F6-0A14-4C02-AE0F-6EF014C80B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -189,15 +189,6 @@
     <t>BACARDÍ CARTA ORO</t>
   </si>
   <si>
-    <t>BACARDÍ RESERVA OCHO</t>
-  </si>
-  <si>
-    <t>BACARDÍ GRAN RESERVA DIEZ</t>
-  </si>
-  <si>
-    <t>BACARDÍ GRAN RESERVA LIMITADA</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -220,15 +211,6 @@
   </si>
   <si>
     <t>BACARDÍ - Scotch 5 yr</t>
-  </si>
-  <si>
-    <t>BACARDÍ - Scotch 10 yr</t>
-  </si>
-  <si>
-    <t>BACARDÍ - Scotch 15 yr</t>
-  </si>
-  <si>
-    <t>BACARDÍ - Scotch 20 yr</t>
   </si>
   <si>
     <t>category</t>
@@ -788,7 +770,7 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND((RANDBETWEEN(20,35)/100)*E2,0)</f>
-        <v>643425</v>
+        <v>569184</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
@@ -817,7 +799,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="0">ROUND((RANDBETWEEN(20,35)/100)*E3,0)</f>
-        <v>562414</v>
+        <v>431184</v>
       </c>
       <c r="G3">
         <f>D3-E3</f>
@@ -846,7 +828,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>612389</v>
+        <v>671653</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="1">D4-E4</f>
@@ -875,7 +857,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>468329</v>
+        <v>398947</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -904,7 +886,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>291077</v>
+        <v>436616</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -933,7 +915,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>263831</v>
+        <v>335784</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -962,7 +944,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>721404</v>
+        <v>646776</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -1102,31 +1084,31 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:H7" ca="1" si="2">RANDBETWEEN(0,35)/100</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
-      </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1135,31 +1117,31 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1168,31 +1150,31 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0.03</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1201,31 +1183,31 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
-      </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1234,31 +1216,31 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ref="B8:H11" ca="1" si="3">RANDBETWEEN(15,20)</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1267,31 +1249,31 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1300,27 +1282,27 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
-      </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -1333,7 +1315,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -1345,15 +1327,15 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -1366,31 +1348,31 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:H15" ca="1" si="4">RANDBETWEEN(1000000,1750000)</f>
-        <v>1339934</v>
+        <v>1282192</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="4"/>
-        <v>1168172</v>
+        <v>1142756</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>1130143</v>
+        <v>1269577</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>1254089</v>
+        <v>1180178</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>1057168</v>
+        <v>1510633</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>1248928</v>
+        <v>1668505</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>1570914</v>
+        <v>1035115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1399,31 +1381,31 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="4"/>
-        <v>1716555</v>
+        <v>1300471</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="4"/>
-        <v>1222780</v>
+        <v>1582178</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>1176973</v>
+        <v>1247268</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>1234321</v>
+        <v>1256093</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>1429450</v>
+        <v>1692883</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>1488233</v>
+        <v>1211537</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>1165708</v>
+        <v>1721284</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1432,31 +1414,31 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="4"/>
-        <v>1098799</v>
+        <v>1705201</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>1515694</v>
+        <v>1689784</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>1673887</v>
+        <v>1247015</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>1396560</v>
+        <v>1092937</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>1435567</v>
+        <v>1094350</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>1553889</v>
+        <v>1360416</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>1450627</v>
+        <v>1498013</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1465,31 +1447,31 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="4"/>
-        <v>1709123</v>
+        <v>1052657</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>1005460</v>
+        <v>1230134</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>1254188</v>
+        <v>1681810</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>1708862</v>
+        <v>1202482</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>1210139</v>
+        <v>1052186</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>1074371</v>
+        <v>1613896</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>1660872</v>
+        <v>1108480</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1498,31 +1480,31 @@
       </c>
       <c r="B16">
         <f t="shared" ref="B16:H19" ca="1" si="5">RANDBETWEEN(5000,10000)</f>
-        <v>9915</v>
+        <v>9843</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="5"/>
-        <v>7896</v>
+        <v>6739</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>6667</v>
+        <v>8772</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>9925</v>
+        <v>7043</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>6239</v>
+        <v>6702</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="5"/>
-        <v>6037</v>
+        <v>7484</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>5200</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1531,31 +1513,31 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="5"/>
-        <v>5673</v>
+        <v>9260</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="5"/>
-        <v>6810</v>
+        <v>9600</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>5254</v>
+        <v>5279</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>8385</v>
+        <v>7283</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>9021</v>
+        <v>5400</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="5"/>
-        <v>9616</v>
+        <v>8430</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>8781</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1564,31 +1546,31 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="5"/>
-        <v>7477</v>
+        <v>8531</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="5"/>
-        <v>6958</v>
+        <v>7089</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>6830</v>
+        <v>7928</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>5917</v>
+        <v>6267</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>9202</v>
+        <v>6022</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>9429</v>
+        <v>6290</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>5436</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1597,31 +1579,31 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="5"/>
-        <v>6823</v>
+        <v>7876</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="5"/>
-        <v>5165</v>
+        <v>8084</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>7655</v>
+        <v>8604</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>5181</v>
+        <v>7087</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>5523</v>
+        <v>5899</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="5"/>
-        <v>8746</v>
+        <v>7940</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>5245</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1908,39 +1890,40 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.15234375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1951,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>226.7</v>
@@ -1960,7 +1943,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="10">
-        <v>6.2840292411179837</v>
+        <v>101</v>
       </c>
       <c r="G2" s="12">
         <v>0.5</v>
@@ -1974,10 +1957,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8">
         <v>319.60000000000002</v>
@@ -1986,7 +1969,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="10">
-        <v>10.544721923499145</v>
+        <v>352</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
@@ -2000,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
@@ -2012,7 +1995,7 @@
         <v>200</v>
       </c>
       <c r="F4" s="10">
-        <v>4.1942768889215536</v>
+        <v>190</v>
       </c>
       <c r="G4" s="13">
         <v>0.2</v>
@@ -2025,11 +2008,11 @@
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>51</v>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <v>822.2</v>
@@ -2038,7 +2021,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="11">
-        <v>2.1988296505044462</v>
+        <v>153</v>
       </c>
       <c r="G5" s="14">
         <v>0.3</v>
@@ -2049,13 +2032,13 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <v>80</v>
@@ -2064,7 +2047,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="10">
-        <v>7.84</v>
+        <v>162</v>
       </c>
       <c r="G6" s="12">
         <v>0.15</v>
@@ -2075,13 +2058,13 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -2090,7 +2073,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="10">
-        <v>10.220000000000001</v>
+        <v>113</v>
       </c>
       <c r="G7" s="13">
         <v>0.3</v>
@@ -2101,13 +2084,13 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <v>450</v>
@@ -2116,7 +2099,7 @@
         <v>150</v>
       </c>
       <c r="F8" s="10">
-        <v>15.89</v>
+        <v>110</v>
       </c>
       <c r="G8" s="13">
         <v>0.5</v>
@@ -2127,13 +2110,13 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9">
         <v>900</v>
@@ -2142,7 +2125,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="11">
-        <v>5.55</v>
+        <v>100</v>
       </c>
       <c r="G9" s="14">
         <v>0.05</v>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bacardi\bacardi-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F32F6-0A14-4C02-AE0F-6EF014C80B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3417D69-FE11-4E24-A72C-EC7E8E25285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Baseline-1</t>
   </si>
 </sst>
 </file>
@@ -713,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -754,7 +757,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>44562</v>
@@ -799,7 +802,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="0">ROUND((RANDBETWEEN(20,35)/100)*E3,0)</f>
-        <v>431184</v>
+        <v>599908</v>
       </c>
       <c r="G3">
         <f>D3-E3</f>
@@ -828,7 +831,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>671653</v>
+        <v>612389</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="1">D4-E4</f>
@@ -857,7 +860,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>398947</v>
+        <v>537711</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -886,7 +889,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>436616</v>
+        <v>465724</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -915,7 +918,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>335784</v>
+        <v>299808</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -966,7 +969,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1084,31 +1087,31 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:H7" ca="1" si="2">RANDBETWEEN(0,35)/100</f>
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1117,23 +1120,23 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1141,7 +1144,7 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1150,31 +1153,31 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1183,31 +1186,31 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1216,31 +1219,31 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ref="B8:H11" ca="1" si="3">RANDBETWEEN(15,20)</f>
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="F8" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1249,31 +1252,31 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1282,31 +1285,31 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1315,11 +1318,11 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -1327,19 +1330,19 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1348,31 +1351,31 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:H15" ca="1" si="4">RANDBETWEEN(1000000,1750000)</f>
-        <v>1282192</v>
+        <v>1711861</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="4"/>
-        <v>1142756</v>
+        <v>1657411</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>1269577</v>
+        <v>1625965</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>1180178</v>
+        <v>1072339</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>1510633</v>
+        <v>1632796</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>1668505</v>
+        <v>1406421</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>1035115</v>
+        <v>1175942</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1381,31 +1384,31 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="4"/>
-        <v>1300471</v>
+        <v>1444243</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="4"/>
-        <v>1582178</v>
+        <v>1307995</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>1247268</v>
+        <v>1357573</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>1256093</v>
+        <v>1489044</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>1692883</v>
+        <v>1496901</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>1211537</v>
+        <v>1157628</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>1721284</v>
+        <v>1584258</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1414,31 +1417,31 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="4"/>
-        <v>1705201</v>
+        <v>1679390</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>1689784</v>
+        <v>1297488</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>1247015</v>
+        <v>1456564</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>1092937</v>
+        <v>1005081</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>1094350</v>
+        <v>1044167</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>1360416</v>
+        <v>1026546</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>1498013</v>
+        <v>1738241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1447,31 +1450,31 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="4"/>
-        <v>1052657</v>
+        <v>1370835</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>1230134</v>
+        <v>1410070</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>1681810</v>
+        <v>1480557</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>1202482</v>
+        <v>1122596</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>1052186</v>
+        <v>1221163</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>1613896</v>
+        <v>1324391</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>1108480</v>
+        <v>1283078</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1480,31 +1483,31 @@
       </c>
       <c r="B16">
         <f t="shared" ref="B16:H19" ca="1" si="5">RANDBETWEEN(5000,10000)</f>
-        <v>9843</v>
+        <v>6191</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="5"/>
-        <v>6739</v>
+        <v>7106</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>8772</v>
+        <v>5481</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>7043</v>
+        <v>7896</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>6702</v>
+        <v>7295</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="5"/>
-        <v>7484</v>
+        <v>5777</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>9235</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1513,31 +1516,31 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="5"/>
-        <v>9260</v>
+        <v>6888</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="5"/>
-        <v>9600</v>
+        <v>9994</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>5279</v>
+        <v>5717</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>7283</v>
+        <v>6416</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>5400</v>
+        <v>9200</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="5"/>
-        <v>8430</v>
+        <v>8663</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>7539</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1546,31 +1549,31 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="5"/>
-        <v>8531</v>
+        <v>8607</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="5"/>
-        <v>7089</v>
+        <v>6648</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>7928</v>
+        <v>7904</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>6267</v>
+        <v>9785</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>6022</v>
+        <v>6711</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>6290</v>
+        <v>6716</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>8534</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1579,31 +1582,31 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="5"/>
-        <v>7876</v>
+        <v>9959</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="5"/>
-        <v>8084</v>
+        <v>8003</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>8604</v>
+        <v>7523</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>7087</v>
+        <v>8583</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>5899</v>
+        <v>7725</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="5"/>
-        <v>7940</v>
+        <v>9724</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>9491</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1889,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2FA15-EA79-41EB-8AEB-8B22759969F9}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
